--- a/apilos_settings/tests/resources/listing_bailleur_ok.xlsx
+++ b/apilos_settings/tests/resources/listing_bailleur_ok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitou/Pro/apilos/apilos_settings/tests/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F5EEA5-98A2-1143-B34B-889970964A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2326ACD5-9CE2-364F-BC24-7FA4477EE99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="34980" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,9 +1367,6 @@
     <t>bruno.duquenoy@nord.gouv.fr</t>
   </si>
   <si>
-    <t>Bailleur HLM de test</t>
-  </si>
-  <si>
     <t>Jean</t>
   </si>
   <si>
@@ -1383,6 +1380,9 @@
   </si>
   <si>
     <t>chantal.bailleur@apilos.com</t>
+  </si>
+  <si>
+    <t>HLM</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#\ ##\ ##\ ##\ ##"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1404,20 +1404,20 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1430,46 +1430,46 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1481,6 +1481,12 @@
       <sz val="10"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1984,7 +1990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2258,13 +2264,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3461,6 +3468,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-EF11-644C-AD45-9B0FACA587B7}"/>
                 </c:ext>
@@ -3492,6 +3500,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-EF11-644C-AD45-9B0FACA587B7}"/>
                 </c:ext>
@@ -3523,6 +3532,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-EF11-644C-AD45-9B0FACA587B7}"/>
                 </c:ext>
@@ -3809,6 +3819,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-B7AD-514F-AD48-CE45DC496372}"/>
                 </c:ext>
@@ -3840,6 +3851,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-B7AD-514F-AD48-CE45DC496372}"/>
                 </c:ext>
@@ -3871,6 +3883,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-B7AD-514F-AD48-CE45DC496372}"/>
                 </c:ext>
@@ -4191,6 +4204,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-45F6-C541-8F65-A82ED2200461}"/>
                 </c:ext>
@@ -4222,6 +4236,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-45F6-C541-8F65-A82ED2200461}"/>
                 </c:ext>
@@ -4253,6 +4268,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-45F6-C541-8F65-A82ED2200461}"/>
                 </c:ext>
@@ -4284,6 +4300,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-45F6-C541-8F65-A82ED2200461}"/>
                 </c:ext>
@@ -4315,6 +4332,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-45F6-C541-8F65-A82ED2200461}"/>
                 </c:ext>
@@ -4630,6 +4648,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6200-FC47-BC40-A89F137DFDBA}"/>
                 </c:ext>
@@ -4661,6 +4680,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-6200-FC47-BC40-A89F137DFDBA}"/>
                 </c:ext>
@@ -4692,6 +4712,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-6200-FC47-BC40-A89F137DFDBA}"/>
                 </c:ext>
@@ -4723,6 +4744,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-6200-FC47-BC40-A89F137DFDBA}"/>
                 </c:ext>
@@ -5446,7 +5468,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
@@ -5489,55 +5511,55 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1">
-      <c r="A2" s="95" t="s">
-        <v>435</v>
+      <c r="A2" s="100" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>14</v>
+        <v>434</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D2" s="97"/>
       <c r="E2" s="95"/>
       <c r="F2" s="99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G2" s="96"/>
       <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1">
-      <c r="A3" s="95" t="s">
-        <v>436</v>
+      <c r="A3" s="100" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="95"/>
       <c r="F3" s="99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G3" s="96"/>
       <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="98" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D4" s="97"/>
       <c r="E4" s="95"/>
       <c r="F4" s="99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G4" s="95"/>
       <c r="H4" s="95"/>

--- a/apilos_settings/tests/resources/listing_bailleur_ok.xlsx
+++ b/apilos_settings/tests/resources/listing_bailleur_ok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pitou/Pro/apilos/apilos_settings/tests/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2326ACD5-9CE2-364F-BC24-7FA4477EE99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E37D7B-CB9B-EC4A-8352-5087FAF36D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="34980" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,14 +27,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Degré de Motivation'!$A$1:$M$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Informations Participants'!$D$1:$I$28</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="440">
   <si>
     <t>Nom</t>
   </si>
@@ -5466,9 +5469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
@@ -5535,8 +5538,8 @@
       <c r="B3" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>439</v>
+      <c r="C3" s="98">
+        <v>987654321</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="95"/>
